--- a/DOC/开发计划/DMS开发计划-2019.1.12.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019.1.12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="128">
   <si>
     <t>功能模块</t>
   </si>
@@ -421,95 +421,121 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>聚合管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPKEY,APPID，组织结构申请后公司ID，用户信息绑定，一个租户申请一个用户信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端扫码登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的权限维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页添加快捷链接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付订单管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询已支付订单，未支付订单，取消订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁升启</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾史强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以按机构ID查询，可以按租户ID查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>70%</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM组织结构及用户注册处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>SRM库存对接，组织结构和用户信息处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚合管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPKEY,APPID，组织结构申请后公司ID，用户信息绑定，一个租户申请一个用户信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端扫码登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP的权限维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页添加快捷链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊鹰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁龄勃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRM组织结构及用户注册处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付订单管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询已支付订单，未支付订单，取消订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫敏兰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁升启</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾史强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以按机构ID查询，可以按租户ID查询</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -673,6 +699,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -680,9 +709,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -993,7 +1019,7 @@
   <dimension ref="A1:XDT90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1030,7 +1056,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="36">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1038,49 +1064,53 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1090,49 +1120,51 @@
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1142,46 +1174,46 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1196,10 +1228,10 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1207,17 +1239,17 @@
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1225,540 +1257,540 @@
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="13"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
@@ -1766,15 +1798,15 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
@@ -1782,744 +1814,744 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="13"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A53" s="13"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A63" s="12"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A70" s="12"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A71" s="12"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A72" s="12"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A74" s="12"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A75" s="13"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A82" s="12"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A83" s="13"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -2528,12 +2560,12 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -2542,12 +2574,12 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -2556,12 +2588,12 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -2570,12 +2602,12 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
@@ -2584,12 +2616,12 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A89" s="13"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
@@ -2598,20 +2630,20 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>

--- a/DOC/开发计划/DMS开发计划-2019.1.12.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019.1.12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="126">
   <si>
     <t>功能模块</t>
   </si>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>合并计次卡退款和储值卡退款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>报表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -109,26 +105,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>套餐销售汇总表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>储值卡明细表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>储值卡汇总表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计次卡明细表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计次卡汇总表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>保险开单明细表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -353,14 +329,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>技师提成明细表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技师提成汇总表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>销售提成明细表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -430,10 +398,6 @@
   </si>
   <si>
     <t>客户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -536,6 +500,34 @@
   </si>
   <si>
     <t>SRM库存对接，组织结构和用户信息处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并计次卡退款和储值卡退款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工管理添加员工兼职</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工员提成明细表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工员提成汇总表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>储值卡汇总表(包含储值卡明细表)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计次卡汇总表（包含计次卡明细表）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +571,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +587,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +712,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,6 +729,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:XDT90"/>
+  <dimension ref="A1:XDT88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1056,182 +1078,176 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="36">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6" t="s">
-        <v>107</v>
+      <c r="A3" s="16"/>
+      <c r="B3" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6" t="s">
-        <v>108</v>
+      <c r="A4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="6" t="s">
-        <v>127</v>
+      <c r="A7" s="16"/>
+      <c r="B7" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6" t="s">
-        <v>103</v>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A11" s="17"/>
       <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1239,17 +1255,17 @@
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1257,574 +1273,576 @@
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>17</v>
+    <row r="14" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10" t="s">
-        <v>19</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
+      <c r="A16" s="16"/>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="13"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="13"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="6" t="s">
-        <v>28</v>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="13"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="13"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="13"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="13"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="13"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="13"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="13"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="13"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="13"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="B34" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A36" s="16"/>
       <c r="B36" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="13"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="13"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="13"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A40" s="13"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="13"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="13"/>
+      <c r="A42" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="6" t="s">
-        <v>48</v>
+      <c r="A43" s="17"/>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>49</v>
+      <c r="A44" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>112</v>
@@ -1834,15 +1852,15 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="10" t="s">
-        <v>51</v>
+      <c r="A45" s="16"/>
+      <c r="B45" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>112</v>
@@ -1852,706 +1870,696 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="A46" s="16"/>
       <c r="B46" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="13"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="13"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A49" s="13"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="13"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A51" s="13"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A52" s="13"/>
+      <c r="A52" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="B52" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A53" s="14"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A54" s="16"/>
       <c r="B54" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A55" s="13"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A56" s="13"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A57" s="13"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A58" s="13"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A59" s="13"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A60" s="13"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A61" s="13"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A62" s="13"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A63" s="13"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A64" s="13"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="B65" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A66" s="14"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A67" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A67" s="16"/>
       <c r="B67" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A68" s="13"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A69" s="13"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A70" s="13"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A71" s="13"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A72" s="13"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A73" s="13"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A74" s="13"/>
+      <c r="A74" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="B74" s="6" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A75" s="14"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="6" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A76" s="12" t="s">
-        <v>85</v>
-      </c>
+      <c r="A76" s="16"/>
       <c r="B76" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A77" s="13"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A78" s="13"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A79" s="13"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A80" s="13"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A81" s="13"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A82" s="13"/>
+      <c r="A82" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="B82" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A83" s="14"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A84" s="16"/>
       <c r="B84" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -2560,12 +2568,12 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A85" s="13"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -2574,12 +2582,12 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A86" s="13"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -2588,12 +2596,12 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A87" s="13"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -2602,66 +2610,38 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A88" s="13"/>
+      <c r="A88" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="B88" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A89" s="14"/>
-      <c r="B89" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A90" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A14:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A15:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A52:A64"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/开发计划/DMS开发计划-2019.1.12.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019.1.12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="125">
   <si>
     <t>功能模块</t>
   </si>
@@ -470,28 +470,6 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="1"/>
-      </rPr>
-      <t>70%</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -571,7 +549,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,12 +571,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,10 +687,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,15 +702,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1040,8 +1037,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1099,7 +1096,7 @@
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="16"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="6"/>
@@ -1110,15 +1107,15 @@
         <v>102</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>116</v>
+      <c r="G3" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="14" t="s">
-        <v>121</v>
+      <c r="B4" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="17"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="6"/>
@@ -1140,7 +1137,9 @@
         <v>103</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
@@ -1167,8 +1166,8 @@
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="16"/>
-      <c r="B7" s="13" t="s">
-        <v>117</v>
+      <c r="B7" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -1178,13 +1177,15 @@
         <v>102</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="13" t="s">
-        <v>118</v>
+      <c r="B8" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -1194,18 +1195,20 @@
         <v>102</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>105</v>
@@ -1214,7 +1217,9 @@
         <v>102</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1">
@@ -1268,7 +1273,9 @@
         <v>102</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1">
@@ -1276,7 +1283,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
@@ -1438,7 +1445,7 @@
     <row r="22" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>114</v>
@@ -1456,7 +1463,7 @@
     <row r="23" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>114</v>
@@ -1473,7 +1480,7 @@
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2382,7 +2389,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>114</v>
@@ -2400,7 +2407,7 @@
     <row r="75" spans="1:8" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>114</v>

--- a/DOC/开发计划/DMS开发计划-2019.1.12.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019.1.12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
   <si>
     <t>功能模块</t>
   </si>
@@ -506,6 +506,10 @@
   </si>
   <si>
     <t>计次卡汇总表（包含计次卡明细表）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以按机构ID查询，可以按租户ID查询</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1037,8 +1041,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1322,7 +1326,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>106</v>
